--- a/EdiDiff/Resources/diff_template.xlsx
+++ b/EdiDiff/Resources/diff_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deHong\source\repos\FBH-EDI-Utils\EdiDiff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deHong\source\repos\FBH-EDI-Utils\EdiDiff\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A1222C-6A8F-4A5A-9348-2F8DB40B09B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0565C87C-B749-4B58-A537-FDB7FE3956CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33069" yWindow="69" windowWidth="18738" windowHeight="12257" xr2:uid="{C66C66E5-D13A-469B-8164-0DFE754CAC1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="27825" xr2:uid="{C66C66E5-D13A-469B-8164-0DFE754CAC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Company</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PalletId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SKU#</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,6 +80,18 @@
   </si>
   <si>
     <t>Result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pallet Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retailer's Item No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +121,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -157,26 +174,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,49 +516,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B154110-2BED-4857-A154-609E76CD92E1}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -547,29 +574,35 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
